--- a/experiences/bucketlist/bucket_list.xlsx
+++ b/experiences/bucketlist/bucket_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/experiences/bucket_list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/experiences/bucketlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C963236-20AF-9447-A621-FA45FD7E2728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5A2A20-2C01-9F45-9911-5A534F1C15FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{7BD5BDFD-60DC-074F-9E30-A512F065169A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
   <si>
     <t>Item</t>
   </si>
@@ -265,6 +265,81 @@
   </si>
   <si>
     <t>https://www.ushistory.org/oddities/index.htm</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Hornstrandir</t>
+  </si>
+  <si>
+    <t>Hornstrandir Nature Reserve</t>
+  </si>
+  <si>
+    <t>https://www.westfjords.is/en/town/index/hornstrandir-1 https://www.youtube.com/watch?v=6A5HY7hDeQA</t>
+  </si>
+  <si>
+    <t>Switzerland Mountain Coaster</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>https://www.oeschinensee.ch/sommer/rodeln/</t>
+  </si>
+  <si>
+    <t>Antarctic Ice Marathon</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Run 26.2 mi in Antarctica</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>$18k entry fee, https://www.icemarathon.com/</t>
+  </si>
+  <si>
+    <t>High Hut</t>
+  </si>
+  <si>
+    <t>Mount Rainier</t>
+  </si>
+  <si>
+    <t>Hike + eat lunch with view</t>
+  </si>
+  <si>
+    <t>https://www.wta.org/go-hiking/hikes/high-hut</t>
+  </si>
+  <si>
+    <t>Point Reyes Lighthouse</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>View of Pacific Ocean</t>
+  </si>
+  <si>
+    <t>https://www.nps.gov/pore/planyourvisit/lighthouse.htm</t>
+  </si>
+  <si>
+    <t>Circus Lane</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>Heavily photographed street</t>
+  </si>
+  <si>
+    <t>https://thirdeyetraveller.com/circus-lane-edinburgh-photography-guide-how-to-visit/</t>
   </si>
 </sst>
 </file>
@@ -655,9 +730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342FAC78-5B3A-664B-97C9-E66C3430DD7B}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1108,12 +1183,162 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/experiences/bucketlist/bucket_list.xlsx
+++ b/experiences/bucketlist/bucket_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/experiences/bucketlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5A2A20-2C01-9F45-9911-5A534F1C15FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59578F49-3C4A-6B41-B91E-DC0F14800FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{7BD5BDFD-60DC-074F-9E30-A512F065169A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="115">
   <si>
     <t>Item</t>
   </si>
@@ -340,6 +340,39 @@
   </si>
   <si>
     <t>https://thirdeyetraveller.com/circus-lane-edinburgh-photography-guide-how-to-visit/</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>Leadville 100</t>
+  </si>
+  <si>
+    <t>Leadville</t>
+  </si>
+  <si>
+    <t>100 mi MTB race</t>
+  </si>
+  <si>
+    <t>2nd Saturday in August</t>
+  </si>
+  <si>
+    <t>https://www.leadvilleraceseries.com/mtb/leadvilletrail100mtb/</t>
+  </si>
+  <si>
+    <t>LoToJa</t>
+  </si>
+  <si>
+    <t>Logan, Jackson Hole</t>
+  </si>
+  <si>
+    <t>203 mi road bike race</t>
+  </si>
+  <si>
+    <t>Saturday after Labor Day</t>
+  </si>
+  <si>
+    <t>https://lotoja.com/</t>
   </si>
 </sst>
 </file>
@@ -731,8 +764,8 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1237,7 +1270,7 @@
         <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>87</v>
@@ -1339,8 +1372,64 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/experiences/bucketlist/bucket_list.xlsx
+++ b/experiences/bucketlist/bucket_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/experiences/bucketlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59578F49-3C4A-6B41-B91E-DC0F14800FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94DB8C9-BF97-F349-B83C-48E1EA0AA90A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{7BD5BDFD-60DC-074F-9E30-A512F065169A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="119">
   <si>
     <t>Item</t>
   </si>
@@ -373,6 +373,18 @@
   </si>
   <si>
     <t>https://lotoja.com/</t>
+  </si>
+  <si>
+    <t>Gibraltar Rock Run</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Run 2.75 mi up a large rock</t>
+  </si>
+  <si>
+    <t>https://www.slowtwitch.com/Lifestyle/Gibraltar_Top_of_the_Rock_run_3264.html</t>
   </si>
 </sst>
 </file>
@@ -765,7 +777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1430,7 +1442,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/experiences/bucketlist/bucket_list.xlsx
+++ b/experiences/bucketlist/bucket_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/experiences/bucketlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94DB8C9-BF97-F349-B83C-48E1EA0AA90A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD8703C-D63F-EA4E-91DE-57797A43C624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{7BD5BDFD-60DC-074F-9E30-A512F065169A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
   <si>
     <t>Item</t>
   </si>
@@ -385,6 +385,12 @@
   </si>
   <si>
     <t>https://www.slowtwitch.com/Lifestyle/Gibraltar_Top_of_the_Rock_run_3264.html</t>
+  </si>
+  <si>
+    <t>Tuna Riding</t>
+  </si>
+  <si>
+    <t>https://www.strava.com/activities/4128447566 https://www.youtube.com/watch?v=TD3CAgg9tt4</t>
   </si>
 </sst>
 </file>
@@ -777,7 +783,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1468,7 +1474,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/experiences/bucketlist/bucket_list.xlsx
+++ b/experiences/bucketlist/bucket_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/experiences/bucketlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD8703C-D63F-EA4E-91DE-57797A43C624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3710391A-CF61-3142-8913-641B540FAF4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{7BD5BDFD-60DC-074F-9E30-A512F065169A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="127">
   <si>
     <t>Item</t>
   </si>
@@ -391,6 +391,24 @@
   </si>
   <si>
     <t>https://www.strava.com/activities/4128447566 https://www.youtube.com/watch?v=TD3CAgg9tt4</t>
+  </si>
+  <si>
+    <t>Balmoral Burn</t>
+  </si>
+  <si>
+    <t>Mosman</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Run 420m up a hill</t>
+  </si>
+  <si>
+    <t>https://humpty.com.au/our-events/balmoral-burn/</t>
+  </si>
+  <si>
+    <t>May</t>
   </si>
 </sst>
 </file>
@@ -782,8 +800,8 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1497,7 +1515,35 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/experiences/bucketlist/bucket_list.xlsx
+++ b/experiences/bucketlist/bucket_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/experiences/bucketlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3710391A-CF61-3142-8913-641B540FAF4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A1A8A4-E23C-C044-9960-BF140AA72FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{7BD5BDFD-60DC-074F-9E30-A512F065169A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="130">
   <si>
     <t>Item</t>
   </si>
@@ -409,6 +409,15 @@
   </si>
   <si>
     <t>May</t>
+  </si>
+  <si>
+    <t>Puerco Canyon</t>
+  </si>
+  <si>
+    <t>Ride down gravel trails</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8T5uh_f3pAg</t>
   </si>
 </sst>
 </file>
@@ -801,7 +810,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1544,7 +1553,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/experiences/bucketlist/bucket_list.xlsx
+++ b/experiences/bucketlist/bucket_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/experiences/bucketlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A1A8A4-E23C-C044-9960-BF140AA72FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C78D0E9-8B59-DE45-9B2C-93B79F4748E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{7BD5BDFD-60DC-074F-9E30-A512F065169A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
   <si>
     <t>Item</t>
   </si>
@@ -418,6 +418,27 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=8T5uh_f3pAg</t>
+  </si>
+  <si>
+    <t>Mauna Kea Climb</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Climb 14000 ft to volcano summit</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zjLZCR3yqtM</t>
+  </si>
+  <si>
+    <t>Everesting</t>
+  </si>
+  <si>
+    <t>Climb 29000 ft in a single ride on a single hill</t>
+  </si>
+  <si>
+    <t>https://everesting.cc/</t>
   </si>
 </sst>
 </file>
@@ -809,8 +830,8 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1523,6 +1544,9 @@
       <c r="H28" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="I28" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1579,8 +1603,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
